--- a/consolidacao/pedidos/CIGR_pedidos.xlsx
+++ b/consolidacao/pedidos/CIGR_pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,17 +797,17 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>43</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1448,17 +1448,17 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E33" t="n">
         <v>386</v>
       </c>
       <c r="F33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1510,17 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E35" t="n">
         <v>301</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1789,17 +1789,17 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E44" t="n">
         <v>61</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -1851,17 +1851,17 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
         <v>11</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2409,17 +2409,17 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="E64" t="n">
         <v>260</v>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3215,17 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E90" t="n">
         <v>673</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -3370,17 +3370,17 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
         <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -3711,17 +3711,17 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
@@ -3742,17 +3742,17 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -3959,17 +3959,17 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
       </c>
       <c r="F114" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.375</t>
+          <t>30.22.366</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4389,28 +4389,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="E128" t="n">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="F128" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.437</t>
+          <t>30.22.375</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4420,28 +4420,28 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.441</t>
+          <t>30.22.437</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4451,28 +4451,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.571</t>
+          <t>30.22.441</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4482,28 +4482,28 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E131" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.640</t>
+          <t>30.22.571</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4513,14 +4513,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.65</t>
+          <t>30.22.640</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4544,14 +4544,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.708</t>
+          <t>30.22.65</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4575,14 +4575,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E134" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4596,7 +4596,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.79</t>
+          <t>30.22.708</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4606,14 +4606,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E135" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4627,24 +4627,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.23.214</t>
+          <t>30.22.79</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1745</v>
+        <v>68</v>
       </c>
       <c r="E136" t="n">
-        <v>1745</v>
+        <v>68</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4658,24 +4658,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.24.1400</t>
+          <t>30.23.214</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>1745</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>1745</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.24.1400</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4699,28 +4699,28 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4730,21 +4730,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>480</v>
+        <v>14</v>
       </c>
       <c r="E139" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="F139" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.24.1853</t>
+          <t>30.24.185</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4792,28 +4792,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>480</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>-20</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.24.1865</t>
+          <t>30.24.1853</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4823,14 +4823,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.24.2103</t>
+          <t>30.24.1865</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4854,14 +4854,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4875,7 +4875,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.24.2103</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4885,14 +4885,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4906,7 +4906,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.24.2907</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4916,14 +4916,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.24.2977</t>
+          <t>30.24.2907</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E146" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4968,7 +4968,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.24.3358</t>
+          <t>30.24.2977</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4978,14 +4978,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.24.3492</t>
+          <t>30.24.3358</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5009,14 +5009,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.24.3497</t>
+          <t>30.24.3492</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E149" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.24.3498</t>
+          <t>30.24.3497</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5071,14 +5071,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E150" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.24.3498</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5102,14 +5102,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E151" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5123,24 +5123,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.26.150</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E152" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5154,7 +5154,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.26.1556</t>
+          <t>30.26.150</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5164,14 +5164,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.26.2444</t>
+          <t>30.26.1556</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5195,14 +5195,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5216,7 +5216,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.26.2470</t>
+          <t>30.26.2444</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -5247,7 +5247,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.26.2470</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5257,14 +5257,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E156" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5278,17 +5278,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.28.15</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -5309,7 +5309,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.28.351</t>
+          <t>30.28.15</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5319,14 +5319,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5340,7 +5340,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.28.357</t>
+          <t>30.28.351</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5350,59 +5350,59 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.29.72</t>
+          <t>30.28.357</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>8</v>
       </c>
       <c r="E160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.29.94</t>
+          <t>30.29.72</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5412,14 +5412,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5433,24 +5433,24 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.36.515</t>
+          <t>30.29.94</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>30.36.518</t>
+          <t>30.36.515</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5474,28 +5474,28 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="E163" t="n">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="F163" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>30.36.519</t>
+          <t>30.36.518</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5505,17 +5505,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E164" t="n">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F164" t="n">
-        <v>-166</v>
+        <v>-3</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>30.36.520</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E165" t="n">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="F165" t="n">
-        <v>-15</v>
+        <v>-166</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>30.36.522</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5567,28 +5567,28 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E166" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F166" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>30.36.523</t>
+          <t>30.36.520</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5598,28 +5598,28 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>30.36.532</t>
+          <t>30.36.522</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5629,45 +5629,45 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>30.42.877</t>
+          <t>30.36.523</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>42 - FERRAMENTAS</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -5681,60 +5681,122 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>30.44.61</t>
+          <t>30.36.532</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>30.44.62</t>
+          <t>30.42.877</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>1</v>
       </c>
       <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>adequado</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>30.44.61</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>saida sem pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>30.44.62</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
         <v>5</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F173" t="n">
         <v>-4</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>saida sem pedido</t>
         </is>

--- a/consolidacao/pedidos/CIGR_pedidos.xlsx
+++ b/consolidacao/pedidos/CIGR_pedidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,24 +504,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30.11.922</t>
+          <t>30.14.177</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11 - MATERIAL QUIMICO</t>
+          <t>14 - MATERIAL EDUCATIVO E ESPORTIVO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Álcool 70. agente desinfetante, Líquido, límpido e transparente. Embalagem com 5L</t>
+          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -535,7 +535,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30.14.177</t>
+          <t>30.14.24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,28 +545,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOLA DE VÔLEI APLICAÇÃO EM (PRAIA),CIRC. 65 À 67CM, EM MICROFIBRA, PESO:260 À 280G (CHEIA), PRESSÃO(03 À 04 LB).</t>
+          <t>BOMBA DE ENCHER BOLA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30.14.24</t>
+          <t>30.14.278</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,28 +576,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOMBA DE ENCHER BOLA</t>
+          <t>COLETE ESPORTIVO POLIESTER.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30.14.278</t>
+          <t>30.14.283</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,14 +607,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO POLIESTER.</t>
+          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -628,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30.14.283</t>
+          <t>30.14.557</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -638,14 +638,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COLETE ESPORTIVO, MATERIAL POLIÉSTER, NUMERADOS, C/ LOGO DO IFPE, CORES DIVERSAS.</t>
+          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30.14.557</t>
+          <t>30.14.561</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -669,14 +669,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOLA DE VOLEI DE QUADRA, COR BRANCA, MARCA: TRIVELLA</t>
+          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30.14.561</t>
+          <t>30.14.61</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -700,14 +700,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>REDE ESPORTE, NAILON, COR BRANCA, FUTSAL</t>
+          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30.14.61</t>
+          <t>30.14.8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CRONÔMETRO - RELÓGIO PARA MARCAR JOGO DE XADREZ</t>
+          <t>APITO DE METAL</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -752,24 +752,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30.14.8</t>
+          <t>30.16.1143</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14 - MATERIAL EDUCATIVO E ESPORTIVO</t>
+          <t>16 - MATERIAL DE EXPEDIENTE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>APITO DE METAL</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30.16.1143</t>
+          <t>30.16.1144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,14 +793,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO, TIPO AZ, 280 X 350MM, LOMBADA DE 80 MM.</t>
+          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>1146</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>1146</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30.16.1144</t>
+          <t>30.16.1148</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1146</v>
+        <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>1294</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>-148</v>
+        <v>-3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30.16.1144</t>
+          <t>30.16.1154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -855,14 +855,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PASTA SUSPENSA, MATERIAL CARTÃO MARMORIZADO PLASTIFICADO, 240mmx 360mm, PRENDEDOR INTERNO C/ TRILHO.</t>
+          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1146</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>1146</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30.16.1148</t>
+          <t>30.16.1166</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -886,28 +886,28 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO DUPLA, 370MMX255MMX180MM.</t>
+          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30.16.1154</t>
+          <t>30.16.1183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -917,28 +917,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, CREPE, TIPO GOMADA, 19MMX50M.</t>
+          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30.16.1166</t>
+          <t>30.16.1186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -948,14 +948,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PAPEL CASCA DE OVO, COR BRANCA, GRAMATURA 180 G/M, TAMANHO A4, CX C/ 50.</t>
+          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.1192</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,17 +979,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30.16.1183</t>
+          <t>30.16.123</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1010,28 +1010,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PAPEL A4, TIPO RECICLADO, RESMA (500 FLS).</t>
+          <t>PASTA POLIONDA 4 CM</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30.16.1186</t>
+          <t>30.16.1269</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1041,28 +1041,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PAPEL CARTÃO, LISO, 180G/M², COR BRANCA, FORMATO A4, C/ 50 FOLHAS.</t>
+          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30.16.1192</t>
+          <t>30.16.1359</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1072,28 +1072,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MATERIAL POLIPROFENO TRANSPARENTE TIPO MONAFACE LARG. 12 COMP.30 M.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30.16.123</t>
+          <t>30.16.136</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1103,28 +1103,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PASTA POLIONDA 4 CM</t>
+          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-236</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30.16.1269</t>
+          <t>30.16.1360</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1134,28 +1134,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CORRETIVO LÍQUIDO, MATERIAL BASE D'ÁGUA - SECAGEM RÁPIDA, APRESENTAÇÃO FRASCO, APLICAÇÃO PAPEL COMUM ML, VOLUME 18ML, CAIXA C/12 UNIDADES.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30.16.1359</t>
+          <t>30.16.1361</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AZUL.</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30.16.136</t>
+          <t>30.16.1362</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1196,17 +1196,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RÉGUA 30 CM, MATERIAL ACRILICO, TIPO ESCRITÓRIO, GRADUAÇÃO</t>
+          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>299</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>-236</v>
+        <v>-1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.16.1360</t>
+          <t>30.16.1366</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERMELHA.</t>
+          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30.16.1361</t>
+          <t>30.16.1374</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1258,14 +1258,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR AMARELA.</t>
+          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E27" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30.16.1362</t>
+          <t>30.16.1392</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1289,28 +1289,28 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FITA ADESIVA MONOFACE 12MMX10M COR VERDE.</t>
+          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30.16.1366</t>
+          <t>30.16.1416</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1320,28 +1320,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PRANCHETA PORTÁTIL, MATERIAL ACRÍLICO, COR FUMÊ, DIMENSÕES 350X250MM.</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30.16.1374</t>
+          <t>30.16.1421</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, MATERIAL AÇO, TRATAMENTO SUPERFICIAL LATONADO, TAMANHO Nº 6. CAIXA 72 UN</t>
+          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>386</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30.16.1392</t>
+          <t>30.16.1422</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PASTA PLÁSTICA TRANSPARENTE, COR BRANCA, LOMBADA 20MM, TAMANHO OFÍCIO, MATERIAL PLÁSTICO POLIETILENO, COM ABA E ELÁSTICO.</t>
+          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="E31" t="n">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1403,7 +1403,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30.16.1416</t>
+          <t>30.16.1423</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1413,28 +1413,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 25 MM, COMPRIMENTO 50 M, COR BEGE, APLICAÇÃO MULTIUSO</t>
+          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="E32" t="n">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="F32" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30.16.1421</t>
+          <t>30.16.1427</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1444,14 +1444,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>APONTADOR LÁPIS, MATERIAL METAL E PLÁSTICO, TIPO ESCOLAR, COM DEPÓSITO.</t>
+          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="E33" t="n">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30.16.1422</t>
+          <t>30.16.1429</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1475,14 +1475,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BLOCO RECADO, MATERIAL PAPEL RECICLADO,AUTO-ADESIVO, COR NATURAL, 76X102 MM, 100 FOLHAS</t>
+          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="E34" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30.16.1423</t>
+          <t>30.16.1430</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1506,28 +1506,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BORRACHA APAGADORA ESCRITA, 56X33X11MM, COR BRANCA, C/ CAPA PLÁSTICA PROTETORA</t>
+          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="E35" t="n">
-        <v>301</v>
+        <v>1051</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-909</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.16.1427</t>
+          <t>30.16.1434</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1537,28 +1537,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CANETA MARCA-TEXTO, MATERIAL PLÁSTICO, TIPO PONTA FLUORESCENTE, COR AMARELA, TRAÇO 5MM</t>
+          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>192</v>
+        <v>458</v>
       </c>
       <c r="E36" t="n">
-        <v>192</v>
+        <v>478</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.16.1429</t>
+          <t>30.16.1445</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1568,14 +1568,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL OFF-SET FL, GRAMATURA 90 G/M2, TIPO SACO COMUM, COMPRIMENTO 229 MM,C OR BRANCA, SEM IMPRESSÃO, LARGURA 114 MM, MODELO OFICIO</t>
+          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30.16.1430</t>
+          <t>30.16.1447</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1599,28 +1599,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ENVELOPE, MATERIAL PAPEL APERGAMINHADO, GRAMATURA 90 G/M2, TIPO OFICIO, COMPRIMENTO 229 MM, COR BRANCA, LARGURA 114 MM, APLICAÇÃO CORRESPONDÊNCIA, CARACT. ADICIONAIS 1 TIMBRADO, CONFORME MODELO</t>
+          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1051</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>-909</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30.16.1434</t>
+          <t>30.16.1472</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1630,28 +1630,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LÁPIS PRETO, CORPO MADEIRA, DIÂMETRO CARGA 2MM, DUREZA CARGA 2 B, SEM BORRACHA APAGADORA, MATERIAL CARGA GRAFITE.</t>
+          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>478</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30.16.1445</t>
+          <t>30.16.1517</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAIXA CORRESPONDÊNCIA, MATERIAL ACRÍLICO, COR FUMÊ, TIPO SIMPLES, COMPRIMENTO 370 MM, LARGURA 255 MM</t>
+          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30.16.1447</t>
+          <t>30.16.1520</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1692,14 +1692,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PAPEL ALMAÇO, MATERIAL CELULOSE VEGETAL, GRAMATURA 56 G/M2, COMPRIMENTO 310 MM, TIPO COM PAUTA E MARGEM, C/ 100 UN</t>
+          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1713,7 +1713,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.16.1472</t>
+          <t>30.16.153</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1723,28 +1723,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>REFORÇO AUTO- ADESIVO, DIÂMETRO, 15MM APLIC. PAPEL PERFURADO, MAT. PLÁSTICO, COR INCOLOR MARCA: POLIFIX.</t>
+          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30.16.1517</t>
+          <t>30.16.155</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1754,14 +1754,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ETIQUETA ADESIVA, MATERIAL CELULOSE VEGETAL, COR AZUL, LARGURA 13 MM, APLICAÇÃO DOCUMENTOS, ALTURA 44,5 MM, CARACTERÍSTICAS ADICIONAIS 1 IMPRESSÃO "CONFIDENCIAL", COR IMPRESSÃO BRANCA. CAIXA C 210 UN.</t>
+          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30.16.1520</t>
+          <t>30.16.1572</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1785,14 +1785,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CAIXA ARQUIVO, MATERIAL PLASTICO CORRUGADO FLEXÍVEL, COR VARIADA, DIMENSÕES 1 350 X 130 X 245MM</t>
+          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E44" t="n">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30.16.153</t>
+          <t>30.16.1604</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EXTRATOR DE GRAMPO, TIPO ESPÁTULA, MATERIAL AÇO</t>
+          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F45" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30.16.155</t>
+          <t>30.16.1610</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1847,28 +1847,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LAPISEIRA,MATERIAL PLÁSTICO,DIÂMETRO CARGA 0,7MM,CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA-MARCA SLIM</t>
+          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30.16.1572</t>
+          <t>30.16.1620</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1878,28 +1878,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LAPISEIRA, MATERIAL PLÁSTICO, DIÂMETRO CARGA 0,9 MM, CARACTERÍSTICAS ADICIONAIS C/PRENDEDOR, PONTA E ACIONADOR DE METAL C/BORRACHA.</t>
+          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30.16.1604</t>
+          <t>30.16.1656</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1909,28 +1909,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30.16.1604</t>
+          <t>30.16.169</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1940,28 +1940,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PRENDEDOR PAPEL, MAT. METAL, TIPO GRAMPOMOL, CAP. 50 FL. COMPRIMENTO50 MM LARG. 25MM, CARACT. ADICIONAIS LOMBADA 25 MM PONTA AÇO INOXCOR PRETA</t>
+          <t>CLIPE DE METAL 2/0</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E49" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F49" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30.16.1610</t>
+          <t>30.16.1753</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL CREPE, TIPO MONOFACE, LARGURA 50MM, COMPRIMENTO 50M, COR BRANCA, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30.16.1620</t>
+          <t>30.16.182</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2002,28 +2002,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CADERNO UNIVERSITÁRIO, APRESENTAÇÃO ESPIRAL, 200 FLS, MATERIAL CELULOSE VEGETAL, MATERIAL CAPA PAPELÃO, 280X205MM</t>
+          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30.16.1656</t>
+          <t>30.16.1887</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2033,28 +2033,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LIVRO PROTOCOLO MAT. PAPEL OFF-SET, QUANT. FOLHAS 100 FL,COMPRIM. 230 MM, LARG. 170MM, TIPO CAPA DURA CARACT. ADIC. COM FOLHAS PAUTADAS E NUMERADAS SEQUENCIALMENTE, MATW. CAPA PAPELÃO, GAM. FOLHAS 54 G/M2. MARCA PERFIL.</t>
+          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
         <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30.16.169</t>
+          <t>30.16.1926</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2064,14 +2064,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLIPE DE METAL 2/0</t>
+          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30.16.1753</t>
+          <t>30.16.1942</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2095,28 +2095,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL CARTÃO PRENSADO PLASTIFICADO, TIPO AZ, LARGURA 280 MM,ALTURA 350 MM, LOMBADA 50 MM, COR PRETA, PRENDEDOR INTERNO FERRAGEM REMOVÍVEL COM 2 FUROS</t>
+          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E54" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F54" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>30.16.182</t>
+          <t>30.16.1974</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2126,14 +2126,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ESTILETE, CORPO PLÁSTICO, LÂMINA METAL LARGA (18MM), COM TRAVA DE SEGURANÇA, CORES VARIADAS.</t>
+          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>865</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>865</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30.16.1887</t>
+          <t>30.16.1986</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2157,28 +2157,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PAPEL PARA ESCRITA BRAILLE, MATERIAL CELULOSE, GRAM. 120G/M2, COR BRANCA, COMPRIMENTO 297 MM, LARGURA 210 MM. PACOTE C/ 500 FLS.</t>
+          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E56" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>30.16.1926</t>
+          <t>30.16.2050</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RIBBON ETIQUETA ADESIVA (RIBBON RESINA 110MM X 74M) 100 POR CENTO RESINA, COM RESISTENCIA A SOLVENTES E ABRASAO, ROLO COR PRETA</t>
+          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30.16.1942</t>
+          <t>30.16.208</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ETIQUETA PARA IDENTIFICAÇÃO DE PATRIMÔNIO, TAMANHO 45mm DE LARGURA x 20mm DE ALTURA, CONFECCIONADA EM POLIÉSTER PRATA CROMO FOSCO, IMPRESSÃO CÓDIGO DE BARRA, 02 COLUNAS, ROLO COM 2000 ETIQUETAS. MARCA: ETIBRAS.</t>
+          <t>PAPEL SULFITE</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30.16.1974</t>
+          <t>30.16.2119</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2250,28 +2250,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SACO DOCUMENTO, MAT. PLÁSTICO CRISTALINO 340 MM LARG. 240MM NÚMERO DE FUROS 4 ESPESSURA 12 MICRA MARCA: dac</t>
+          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>865</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>865</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30.16.1986</t>
+          <t>30.16.2167</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2281,28 +2281,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>grampo trilho encadernador, mat. plást. comp. 120 mm, lingueta, aplic. fixação em processos trat. superf. plást. tipo espenho garra. MARACA: helemax</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="E60" t="n">
-        <v>69</v>
+        <v>260</v>
       </c>
       <c r="F60" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30.16.2050</t>
+          <t>30.16.2168</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2312,14 +2312,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PINCEL MARCADOR PERMANENTE CD, MATERIAL PLÁSTICO, TIPO PONTA POLIÉSTER, COR TINTA VERMELHA, CARACTERÍSTICAS ADICIONAIS PONTA 2MM</t>
+          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30.16.208</t>
+          <t>30.16.2189</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2343,14 +2343,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE</t>
+          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2364,7 +2364,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30.16.2119</t>
+          <t>30.16.2196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2374,28 +2374,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Refil de tinta para marcador de quadro branco, modelo V Board Master, cor vermelha.</t>
+          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30.16.2167</t>
+          <t>30.16.2198</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2405,28 +2405,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: AZUL</t>
+          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="E64" t="n">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30.16.2168</t>
+          <t>30.16.2363</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2436,14 +2436,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA BIC, COR: PRETA</t>
+          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30.16.2189</t>
+          <t>30.16.2414</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2467,14 +2467,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PAPEL VERGÊ, FORMATO A4, GRAMATURA 180 G/M2, COR BRANCA, MATERIAL CELULOSE VEGETAL, TIPO CLÁSSICO, COMPRIMENTO 297 MM, LARGURA 210 MM, PACOTE COM 100 FOLHAS.</t>
+          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30.16.2196</t>
+          <t>30.16.2415</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2498,28 +2498,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30.16.2196</t>
+          <t>30.16.2416</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2529,14 +2529,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL SILICONE, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, ESPESSURA 1 MM, INCOLOR, APLICAÇÃO MULTIUSO.</t>
+          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.2417</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2560,28 +2560,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>TNT, TECIDO FIBRA SINTETICA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30.16.2198</t>
+          <t>30.16.3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2591,17 +2591,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BASE P/ FITA ADESIVA, MATERIAL PLÁSTICO RESISTENTE, TAMANHO PEQUENO, CARACTERÍSTICAS ADICIONAIS LÂMINA DE CORTE EM AÇO INOX SERRILHADO, COM ROLDANA.</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30.16.2363</t>
+          <t>30.16.325</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PORTA CORRESPONDÊNCIA , EMPILHÁVEL, EM PLÁSTICO, CORES VARIADAS.</t>
+          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30.16.2414</t>
+          <t>30.16.348</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PAPEL SULFITE. PCT C/ 30 FL.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30.16.2415</t>
+          <t>30.16.397</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2684,28 +2684,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO C/ PRENDEDOR INTERNO. TIPO CLASSIFICADORA.</t>
+          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E73" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F73" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30.16.2416</t>
+          <t>30.16.410</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2715,14 +2715,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PAPEL COUCHÊ, 180 G, A4, PACOTE C. 50 FOLHAS.</t>
+          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30.16.2417</t>
+          <t>30.16.468</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2746,14 +2746,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TNT, TECIDO FIBRA SINTETICA</t>
+          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30.16.3</t>
+          <t>30.16.487</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2777,28 +2777,28 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30.16.325</t>
+          <t>30.16.488</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2808,14 +2808,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CALCULADORA ELETRONICA DE 12 DIGITOS C BIG DISPLAY BOTÃO BACKSPACE FUNCIONA C/PILHA AA ALTURA 5CM CUMPRIMENTO 18.5CM LARGURA 15.3 CM</t>
+          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -2829,7 +2829,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30.16.348</t>
+          <t>30.16.572</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2839,14 +2839,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA, DIÂMETRO 0.9MM, CX C/12, DUREZA HB</t>
+          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E78" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30.16.397</t>
+          <t>30.16.607</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2870,14 +2870,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PASTA ARQUIVO, MATERIAL PLÁSTICO, TRANSPARENTE, LOMBADA 10MM, COM ABAS E ELÁSTICO</t>
+          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30.16.410</t>
+          <t>30.16.684</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2901,14 +2901,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL POLIPROPILENO, TRANSPARENTE, 25MMX50M.</t>
+          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E80" t="n">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30.16.468</t>
+          <t>30.16.710</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CADERNO PEQUENO, CAPA DURA 96 FOLHAS.</t>
+          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30.16.487</t>
+          <t>30.16.713</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2963,14 +2963,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E82" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2984,7 +2984,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30.16.487</t>
+          <t>30.16.714</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2994,14 +2994,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR AZUL</t>
+          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>56</v>
+        <v>673</v>
       </c>
       <c r="E83" t="n">
-        <v>56</v>
+        <v>673</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30.16.488</t>
+          <t>30.16.859</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3025,14 +3025,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MARCADOR/PINCEL PARA QUADRO BRANCO/MAGNÉTICO, MATERIAL PLÁSTICO, PONTA ACRÍLICO, COR VERMELHA</t>
+          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30.16.572</t>
+          <t>30.16.863</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3056,28 +3056,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PONTA REFIL MARCADOR RECARREGÁVEL PARA QUADRO BRANCO, COM FLUXO CONSTANTE DE TINTA PONTA REDONDA DE 6MM NA COR PRETA.</t>
+          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E85" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30.16.607</t>
+          <t>30.16.919</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PERCEVEJO, MATERIAL METAL, TRATAMENTO SUPERFICIAL GALVANIZADO, 10MM.</t>
+          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30.16.684</t>
+          <t>30.16.953</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3118,14 +3118,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CLIPE II - TAMANHO 8/0, CAIXA COM 25 UN</t>
+          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30.16.710</t>
+          <t>30.16.994</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3149,14 +3149,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COLCHETE FIXAÇÃO, TAM. 12, COM 72 UND</t>
+          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3170,24 +3170,24 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30.16.713</t>
+          <t>30.17.150</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA PRETA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E89" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3201,55 +3201,55 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30.16.714</t>
+          <t>30.17.398</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CANETA ESFEROGRÁFICA, MATERIAL PLÁSTICO, QUANTIDADE CARGAS 1UN, MATERIAL PONTA AÇO INOXIDÁVEL COM ESFERA DE TUNGSTÊNIO, TIPO ESCRITA MÉDIA, COR TINTA VERMELHA, CORPO SEXTAVADO, TRANSPARENTE E ORIFÍCIO LATERAL.</t>
+          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>673</v>
+        <v>168</v>
       </c>
       <c r="E90" t="n">
-        <v>673</v>
+        <v>175</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30.16.859</t>
+          <t>30.17.428</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CINTA ELÁSTICA, ALGODÃO E POLIPROPILENO 4X5.</t>
+          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3263,55 +3263,55 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30.16.863</t>
+          <t>30.17.538</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MINA GRAFITE, MATERIAL GRAFITA DIÂMETRO 0,70 MM, CX C/12,COMPRIMENTO 100 MM, DUREZA 2B</t>
+          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30.16.919</t>
+          <t>30.17.558</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO PARA DOCUMENTOS, USO EM PASTA AZ, FURAÇÃO UNIVERSAL, COR CRISTAL LISO, TAMANHO OFÍCIO.</t>
+          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3325,55 +3325,55 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30.16.953</t>
+          <t>30.17.626</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FITA ADESIVA, MATERIAL ESPUMA ACRÍLICA, TIPO DUPLA FACE, LARGURA 19 MM, COMPRIMENTO 20 M, COR BRANCA, APLICAÇÃO MULTIUSO</t>
+          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30.16.994</t>
+          <t>30.17.693</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16 - MATERIAL DE EXPEDIENTE</t>
+          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BLOCO DE RECADO, MATERIAL RECICLADO COR NATURAL, LARGURA 38MM, COMPRIMENTO 50MM, AUTO ADESIVO COM 100 FOLHAS</t>
+          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30.17.150</t>
+          <t>30.17.694</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3397,14 +3397,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TECLADO PORTUGUÊS ABNT II, PLUG AND PLAY, CONECTOR USB, NÍVEL COM WINDOWS 98/ME/00/NT/XP E MULTIMÍDIA.</t>
+          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30.17.398</t>
+          <t>30.17.713</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3428,17 +3428,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MOUSE PAD, APOIO DE PUNHOS ERGONOMICO, BASE PARA MOUSE ERGONOMICO, COR PRETO.</t>
+          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30.17.428</t>
+          <t>30.17.718</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3459,14 +3459,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MOUSE USB 3 BOTOES RESOLUÇÃO 800DPI ÓPTICO</t>
+          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30.17.538</t>
+          <t>30.17.725</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3490,14 +3490,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ORGANIZADOR DE CABOS RACK, TIPO 1U, ALTURA 43,7MM, MATERIAL AÇO, COR PRETO</t>
+          <t>Adaptador USB 3.0 para VGA</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30.17.558</t>
+          <t>30.17.727</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3521,14 +3521,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ABRAÇADEIRA, 200 MM x 2,50 MM , APLICAÇÃO AMARRAÇÃO E FIXAÇÃO, PACOTE COM 100 UN.</t>
+          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30.17.626</t>
+          <t>30.17.78</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3552,28 +3552,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>APOIO DE PUNHOS ERGONÔMICO PARA TECLADO, EM GEL, ACABAMENTO SUPERFICIAL EM TECIDO SINTÉTICO, BASE EM BORRACHA ANTIELÁSTICA E ANTIDERRAPANTE, COR PRETA</t>
+          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E101" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>30.17.693</t>
+          <t>30.17.828</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3583,14 +3583,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CONECTOR CABO PAR TRANÇADO, TIPO FÊMEA, MODELO RJ45, CATEGORIA 6. MARCA: MAXITELECOM.</t>
+          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -3604,7 +3604,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>30.17.694</t>
+          <t>30.17.833</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3614,14 +3614,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CONECTOR RJ-45 MACHO CAT 6 - PACOTE COM 100 UND - ALTURA: 8,0 mm - LARGURA: 11,7 mm - PROFUNDIDADE: 21,5 mm - PESO: 0,002 Kg - COR: TRANSPARENTE - TIPO DE CABO: U/UTP - DIÂMETRO DO CONDUTOR: 26 A 22 AWG. MARCA: MAXITELECOM</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>30.17.713</t>
+          <t>30.17.834</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3645,28 +3645,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TECLADO NUMÉRICO COM ACABAMENTO EMBORRACHADO PARA MICROCOMPUTADOR</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>30.17.718</t>
+          <t>30.17.835</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3676,28 +3676,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CABO USB PARA IMPRESSORA TIPO AB (1,80M) Cabo para conexão de periféricos sendo um dos lados Plug USB A Macho e o outro Plug USB B Macho Comprimento 1.80 Metros</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.836</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3707,28 +3707,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30.17.725</t>
+          <t>30.17.839</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3738,14 +3738,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Adaptador USB 3.0 para VGA</t>
+          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30.17.727</t>
+          <t>30.17.903</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3769,14 +3769,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CABO ÁUDIO E VÍDEO TIPO DVI-HDMI, 1,5M.</t>
+          <t>ALCOOL ISOPROPILICO 99,8%</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3790,24 +3790,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>30.17.78</t>
+          <t>30.22.109</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BATERIA DE LITHIUM TIPO CLOCK, REF.: "CR 2032" P/ USO MICROCOMPUTADOR.</t>
+          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3821,24 +3821,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>30.17.828</t>
+          <t>30.22.118</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>KIT PARAFUSO COM PORCA GAIOLA PARA RACK PACOTE 100 UNIDADES</t>
+          <t>LUSTRADOR DE MÓVEIS.</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3852,24 +3852,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>30.17.833</t>
+          <t>30.22.121</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE410A COR PRETO</t>
+          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3883,58 +3883,58 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>30.17.834</t>
+          <t>30.22.125</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE411A COR CIANO</t>
+          <t>FLANELA, TAM 40X60 CM.</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E112" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30.17.835</t>
+          <t>30.22.138</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE412A COR YELLOW</t>
+          <t>LUVA DE BORRACHA TAM. G</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="E113" t="n">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="F113" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3945,55 +3945,55 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>30.17.836</t>
+          <t>30.22.143</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP PRO 400 COLOR, MODEL.: CE413A COR MAGENTA</t>
+          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>-53</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>30.17.839</t>
+          <t>30.22.167</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CARTUCHO DE TONER, P. IMPRESSORA HP, REF.: CF280A COR PRETO</t>
+          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4007,24 +4007,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30.17.903</t>
+          <t>30.22.305</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>17 - MATERIAL DE PROCESSAMENTO DE DADOS</t>
+          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ALCOOL ISOPROPILICO 99,8%</t>
+          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E116" t="n">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4038,7 +4038,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30.22.109</t>
+          <t>30.22.310</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4048,14 +4048,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ESPONJA DE LIMPEZA DUPLA FACE.</t>
+          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>30.22.118</t>
+          <t>30.22.333</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4079,14 +4079,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>LUSTRADOR DE MÓVEIS.</t>
+          <t>INSETICIDA AEROSOL</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E118" t="n">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>30.22.121</t>
+          <t>30.22.366</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4110,14 +4110,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>RODO PLASTICO DE 2 BORRACHAS 40CM COM CABO REFORÇADO DE MADEIRA. MARCA: LIMPAMANIA</t>
+          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="E119" t="n">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>30.22.125</t>
+          <t>30.22.375</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4141,17 +4141,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FLANELA, TAM 40X60 CM.</t>
+          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F120" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30.22.138</t>
+          <t>30.22.437</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4172,28 +4172,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>LUVA DE BORRACHA TAM. G</t>
+          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>326</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>328</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30.22.143</t>
+          <t>30.22.441</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4203,17 +4203,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SACO PLÁSTICO, 200 L, PCT C/ 100.</t>
+          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E122" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>-53</v>
+        <v>-2</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30.22.167</t>
+          <t>30.22.571</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4234,14 +4234,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LIMPA VIDRO. (GALÃO COM 5 LITROS).</t>
+          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30.22.305</t>
+          <t>30.22.640</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4265,14 +4265,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>REFIL MOP ÚMIDO, MATERIAL FIBRA DE ALGODÃO</t>
+          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>30.22.310</t>
+          <t>30.22.65</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4296,14 +4296,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DESENTUPIDOR PARA BANHEIROS, MATERIAL BORRACHA FLEXÍVEL E CABO RESISTENTE</t>
+          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>30.22.333</t>
+          <t>30.22.708</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4327,14 +4327,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>INSETICIDA AEROSOL</t>
+          <t>TAMPA DE VASO SANITARIO.</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4348,7 +4348,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>30.22.366</t>
+          <t>30.22.79</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4358,45 +4358,45 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="E127" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F127" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>pedido no suap</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>30.22.366</t>
+          <t>30.23.214</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TOALHA DE PAPEL, TIPO FOLHA 2 DOBRAS, PACOTE 1.000 FL.</t>
+          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>195</v>
+        <v>1745</v>
       </c>
       <c r="E128" t="n">
-        <v>195</v>
+        <v>1745</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4410,55 +4410,55 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30.22.375</t>
+          <t>30.24.1400</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PANO DE PRATO, DE ALGODÃO, COR BRANCA.</t>
+          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>30.22.437</t>
+          <t>30.24.1816</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ESPANADOR, MATERIAL PENA DE AVESTRUZ, MATERIAL CABO MADEIRA, COMPRIMENTO CABO 60cm</t>
+          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4472,27 +4472,27 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>30.22.441</t>
+          <t>30.24.185</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA, MATERIAL LA DE ACO CARBONO, PACOTE.</t>
+          <t>BUCHA DE NYLON Nº 08</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>480</v>
       </c>
       <c r="E131" t="n">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="F131" t="n">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4503,24 +4503,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>30.22.571</t>
+          <t>30.24.1853</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>POLIDOR DE ALUMÍNIO. 500ML</t>
+          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4534,24 +4534,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>30.22.640</t>
+          <t>30.24.1865</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BALDE COM CAPACIDADE DE 20 LITROS COM ALÇA</t>
+          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E133" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4565,24 +4565,24 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30.22.65</t>
+          <t>30.24.2103</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SABÃO EM PÓ - SACO C/ 5KG.</t>
+          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4596,24 +4596,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30.22.708</t>
+          <t>30.24.2858</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TAMPA DE VASO SANITARIO.</t>
+          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4627,24 +4627,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30.22.79</t>
+          <t>30.24.2907</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>22 - MATERIAL DE LIMPEZA E PROD. DE HIGIENIZACAO</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PANO NÃO TECIDO COM FIBRAS DE VISCOSE E POLIESTER, ROLO COM 33 CM X 300 M. PICOTADO.</t>
+          <t>TORNEIRA DE METAL 3/4 LONGA</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E136" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -4658,24 +4658,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30.23.214</t>
+          <t>30.24.2977</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>23 - UNIFORMES, TECIDOS E AVIAMENTOS</t>
+          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>30.23.240 - CAMISA PARA UNIFORME ESCOLAR, COM MANGA VERDES COM FRISO VERMELHO NOS TAMANHOS P, M ,G E GG</t>
+          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1745</v>
+        <v>20</v>
       </c>
       <c r="E137" t="n">
-        <v>1745</v>
+        <v>20</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4689,7 +4689,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30.24.1400</t>
+          <t>30.24.3358</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4699,14 +4699,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>FECHADURA TUBULAR EM METAL CROMADO PARA DIVISÓRIA</t>
+          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30.24.1816</t>
+          <t>30.24.3492</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4730,14 +4730,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>FITA VEDA ROSCA 50M X 18MM, ESPESSURA 0,06 A 0,08MM</t>
+          <t>Bucha com parafuso 10MM</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="E139" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.3497</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4761,28 +4761,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="E140" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30.24.185</t>
+          <t>30.24.3498</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4792,28 +4792,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BUCHA DE NYLON Nº 08</t>
+          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="E141" t="n">
-        <v>500</v>
+        <v>16</v>
       </c>
       <c r="F141" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30.24.1853</t>
+          <t>30.24.946</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4823,14 +4823,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL (TRINCHA) DE 2" (POLEGADA).</t>
+          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4844,24 +4844,24 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30.24.1865</t>
+          <t>30.26.150</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ADESIVO VEDA CALHA, ASPECTO FÍSICO PASTOSO, APLICAÇÃO CALHAS, TELAS E RUFOS, 280G.</t>
+          <t>TOMADA P/ TELEFONE SISTEMA X</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E143" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4875,24 +4875,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>30.24.2103</t>
+          <t>30.26.1556</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>PINCEL PINTURA PREDIAL, ROLO DE LÃ 15 CM COM CABO</t>
+          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4906,24 +4906,24 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>30.24.2858</t>
+          <t>30.26.2444</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MÁSCARA DESCARTÁVEL USO GERAL, POLIPROPILENO, FIXAÇÃO COM CLIPE E ELÁSTICO.</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4937,24 +4937,24 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>30.24.2907</t>
+          <t>30.26.2470</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TORNEIRA DE METAL 3/4 LONGA</t>
+          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4968,24 +4968,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30.24.2977</t>
+          <t>30.26.2962</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ANEL DE BORRACHA PARA VEDAÇÃO DE VASO</t>
+          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4999,24 +4999,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30.24.3358</t>
+          <t>30.28.15</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PORTA, PADRÃO MADEIRA CEDRO, TIPO LISA, ACABAMENTO SUPERFICIAL BASE PINTURA, LARGURA 90 CM,ESPESSURA 3,5 CM, CARACTERÍSTICAS ADICIONAIS SEMI-OCA EMCABEÇADA, MATERIAL MADEIRA, ALTURA 2,1</t>
+          <t>CADEADO 40MM</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5030,24 +5030,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30.24.3492</t>
+          <t>30.28.351</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Bucha com parafuso 10MM</t>
+          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5061,55 +5061,55 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30.24.3497</t>
+          <t>30.28.357</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TOMADA, MODELO 2P+T, SISTEMA X 10A</t>
+          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30.24.3498</t>
+          <t>30.29.72</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Tinta Acrílica, cor Branco Gelo, latão com 18 litros</t>
+          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5123,24 +5123,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30.24.946</t>
+          <t>30.29.94</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>24 - MATERIAL P/ MANUT.DE BENS IMOVEIS/INSTALACOES</t>
+          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ROLO DE LA DE CARNEIRO, PARA PINTURA DE PAREDES, TAMANHO 23 CM.</t>
+          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5154,24 +5154,24 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30.26.150</t>
+          <t>30.36.515</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TOMADA P/ TELEFONE SISTEMA X</t>
+          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="E153" t="n">
-        <v>19</v>
+        <v>600</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5185,55 +5185,55 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30.26.1556</t>
+          <t>30.36.518</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>INTERRUPTOR SOBREPOR, 2 TECLAS, SISTEMA X, CORRENTE 10 A, TENSÃO 250V</t>
+          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30.26.2444</t>
+          <t>30.36.519</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 10 M, MATERIAL CONDUTOR COBRE</t>
+          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5247,86 +5247,86 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30.26.2470</t>
+          <t>30.36.520</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CABO AUDIOFREQUÊNCIA , MODELO XLR / P10, COMPRIMENTO 15 M, MATERIAL CONDUTOR COBRE</t>
+          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>30.26.2962</t>
+          <t>30.36.522</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>26 - MATERIAL ELETRICO E ELETRONICO</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Refletor Solar 100w, com placa solar, acendimento automático, controle remoto.</t>
+          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>30.28.15</t>
+          <t>30.36.523</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CADEADO 40MM</t>
+          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5340,24 +5340,24 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>30.28.351</t>
+          <t>30.36.532</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>36 - MATERIAL HOSPITALAR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Óculos de proteção individual, material armação em aço revestido de polipropileno, lente em acrílico transparente, incolor, tipo esterilizável a frio.</t>
+          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5371,432 +5371,91 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>30.28.357</t>
+          <t>30.42.877</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>28 - MATERIAL DE PROTECAO E SEGURANCA</t>
+          <t>42 - FERRAMENTAS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Fita adesiva vermelha para demarcação de solo, tamanho 48mm X 30m, composta de PVC e adesivo acrílico de alta resistência, para demarcação de distância</t>
+          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>saida sem pedido</t>
+          <t>adequado</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>30.29.72</t>
+          <t>30.44.61</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SUPORTE DE PAREDE PARA CAMERA TIPO SPEED DOME</t>
+          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>adequado</t>
+          <t>saida sem pedido</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>30.29.94</t>
+          <t>30.44.62</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>29 - MATERIAL P/ AUDIO, VIDEO E FOTO</t>
+          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PROTETOR PARA MICROFONE POP FILTER SMART PS01, MATERIAL ESPUMA, CARACTERISTICAS ADICIONAIS ANTI-PUFF, APLICAÇÃO MICROFONE PRA518 GOOSENECK</t>
+          <t>PLACA SETA INDICATIVA DE CO2.</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G162" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>30.36.515</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>SACO PLÁSTICO LIXO, CAPACIDADE 30 L, COR BRANCO LEITOSO, LARGURA 59 CM, ALTURA 62 CM, APLICAÇÃO HOSPITALAR, MATERIAL POLIETILENO ALTA DENSIDADE....</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>600</v>
-      </c>
-      <c r="E163" t="n">
-        <v>600</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>30.36.518</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>ÁLCOOL ETÍLICO LIMPEZA DE AMBIENTES, TIPO ETÍLICO HIDRATADO, CARACTERÍSTICAS ADICIONAIS GEL, CONCENTRAÇÃO 70.</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>42</v>
-      </c>
-      <c r="E164" t="n">
-        <v>45</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>saida sem pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>30.36.519</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>31</v>
-      </c>
-      <c r="E165" t="n">
-        <v>197</v>
-      </c>
-      <c r="F165" t="n">
-        <v>-166</v>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>saida sem pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>30.36.519</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>TOALHA DE PAPEL, MATERIAL 100 FIBRAS CELULÓSICAS, TIPO FOLHA DUPLA PICOTADA, COMPRIMENTO 28 CM, LARGURA 42 CM, CARACTERÍSTICAS ADICIONAIS ALTO PODER DE ABSORÇÃO, GRAMATURA MÍNIMA 110 G/M2, APLICAÇÃO LIMPEZA EM GERAL.</t>
-        </is>
-      </c>
-      <c r="D166" t="n">
-        <v>31</v>
-      </c>
-      <c r="E166" t="n">
-        <v>31</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>30.36.520</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>DISPENSER HIGIENIZADOR, MATERIAL ACRÍLICO, CAPACIDADE 800 ML, TIPO FIXAÇÃO PAREDE, COR TRANSPARENTE, APLICAÇÃO MÃOS, CARACTERÍSTICAS ADICIONAIS FORMATO PIRAMIDAL 100MM X 100MM X 70 MM X 90MM.</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>2</v>
-      </c>
-      <c r="E167" t="n">
-        <v>17</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-15</v>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>saida sem pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>30.36.522</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, SUPORTE PLÁSTICO ABS, RESERVATÓRIO PLÁSTICO ABS, ACABAMENTO PLÁSTICO ABS, ALTURA 23 CM, LARGURA 11 CM, CAPACIDADE 1.000 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, PARA BWC.</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>3</v>
-      </c>
-      <c r="E168" t="n">
-        <v>8</v>
-      </c>
-      <c r="F168" t="n">
-        <v>-5</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>saida sem pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>30.36.523</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>SABONETEIRA, ALTURA 28,70 CM, LARGURA 12,50 CM, CAPACIDADE 800 ML, FIXAÇÃO EM PAREDE POR BUCHA/PARAFUSO, REFIL DE 80O ML TIPO "BAG IN BOX", COM SISTEMA DE TRAVAS LATERAIS ACIONADAS POR PRESSÃO, PLÁSTICO ABS, BRANCA E CINZA, PROFUNDIDADE 12,50 CM.</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>50</v>
-      </c>
-      <c r="E169" t="n">
-        <v>50</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>30.36.532</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>36 - MATERIAL HOSPITALAR</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>KIT DE EMERGÊNCIA PARA DESCONTAMINAÇÃO DE AMBIENTES COM CONFIRMAÇÃO DO COVID19.</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>30.42.877</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>42 - FERRAMENTAS</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>JOGO DE CHAVES ALLEN COM 11 PEÇAS, 1,5MM, 2MM, 2,5MM, 3MM, 4MM, 5MM, 6MM, 7MM, 8MM, 9MM, 10MM.</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>adequado</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>30.44.61</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE AGUA PRESSURIZADA (AP).</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-2</v>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>saida sem pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>30.44.62</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>44 - MATERIAL DE SINALIZACAO VISUAL E OUTROS</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>PLACA SETA INDICATIVA DE CO2.</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>1</v>
-      </c>
-      <c r="E173" t="n">
-        <v>5</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-4</v>
-      </c>
-      <c r="G173" t="inlineStr">
         <is>
           <t>saida sem pedido</t>
         </is>
